--- a/fusion_points/Fusion_Points_Locations.xlsx
+++ b/fusion_points/Fusion_Points_Locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Musaceae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7296F9-6040-4920-83B5-ACD23E2230A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47B7325-7B51-4429-A22F-199FCEB34C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
   <si>
     <t>Species</t>
   </si>
@@ -179,18 +179,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>AK1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>AK2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>AK3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>AK4</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -212,10 +204,6 @@
   </si>
   <si>
     <t>AK7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AK8</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -312,6 +300,38 @@
   </si>
   <si>
     <t>M. acuminata</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK8_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK8_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>E.glaucum</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK1_1_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK1_1_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>M. lasiocarpa</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK3_1_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK3_1_2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -352,6 +372,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1108,7 +1129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1142,6 +1163,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1166,32 +1214,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1503,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1521,34 +1554,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1559,24 +1592,24 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="27"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E4" s="8">
         <v>9</v>
@@ -1585,599 +1618,642 @@
         <v>2670</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="30">
+        <v>9</v>
+      </c>
+      <c r="F5" s="30">
+        <v>2434</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2687</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="6">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2687</v>
-      </c>
-      <c r="G5" s="6" t="s">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1616</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1487</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1675</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1616</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="6">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1675</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="6" t="s">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1404</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="6">
-        <v>3</v>
-      </c>
-      <c r="F9" s="6">
-        <v>3910</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
       <c r="F10" s="6">
+        <v>1404</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3910</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
         <v>1830</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G12" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1956</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3753</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1956</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="6">
-        <v>3</v>
-      </c>
-      <c r="F12" s="6">
-        <v>3753</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="6" t="s">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="6">
-        <v>6</v>
-      </c>
-      <c r="F13" s="6">
-        <v>100</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="6">
-        <v>7</v>
-      </c>
-      <c r="F14" s="6">
-        <v>3773</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" s="6">
         <v>6</v>
       </c>
       <c r="F15" s="6">
-        <v>595</v>
+        <v>100</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" s="6">
         <v>7</v>
       </c>
       <c r="F16" s="6">
+        <v>3810</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="6">
+        <v>6</v>
+      </c>
+      <c r="F17" s="6">
+        <v>595</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="6">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6">
         <v>2490</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G18" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="6">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2184</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="6">
+        <v>8</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1796</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="6">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2099</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="6">
-        <v>7</v>
-      </c>
-      <c r="F17" s="6">
-        <v>2184</v>
-      </c>
-      <c r="G17" s="6" t="s">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2460</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="6">
-        <v>8</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1796</v>
-      </c>
-      <c r="G18" s="6" t="s">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2403</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="6">
-        <v>10</v>
-      </c>
-      <c r="F19" s="6">
-        <v>2099</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
-        <v>2460</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>2403</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="6" t="s">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" s="21"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="6">
-        <v>2</v>
-      </c>
-      <c r="F22" s="6">
-        <v>203</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="6">
-        <v>7</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1942</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E24" s="6">
         <v>2</v>
       </c>
       <c r="F24" s="6">
-        <v>382</v>
+        <v>203</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E25" s="6">
         <v>7</v>
       </c>
       <c r="F25" s="6">
+        <v>1942</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A26" s="21"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>382</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A27" s="21"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="6">
+        <v>7</v>
+      </c>
+      <c r="F27" s="6">
         <v>1746</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G27" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A28" s="21"/>
+      <c r="B28" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="6">
+        <v>6</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2368</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="6">
+        <v>9</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2527</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="6">
+        <v>4</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1561</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="11" t="s">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="6">
+        <v>4</v>
+      </c>
+      <c r="F31" s="6">
+        <v>2238</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="6">
+        <v>8</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1603</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="6">
+        <v>9</v>
+      </c>
+      <c r="F33" s="6">
+        <v>2310</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="6">
         <v>7</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="6">
-        <v>6</v>
-      </c>
-      <c r="F26" s="6">
-        <v>2368</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="F34" s="6">
+        <v>1743</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="6">
+        <v>7</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1722</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="26"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="9">
         <v>9</v>
       </c>
-      <c r="F27" s="6">
-        <v>2527</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="6">
-        <v>4</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1568</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="6">
-        <v>4</v>
-      </c>
-      <c r="F29" s="6">
-        <v>2238</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="6">
-        <v>8</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1603</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="6">
-        <v>9</v>
-      </c>
-      <c r="F31" s="6">
-        <v>2310</v>
-      </c>
-      <c r="G31" s="6" t="s">
+      <c r="F36" s="9">
+        <v>1952</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="6">
-        <v>7</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1743</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="6">
-        <v>7</v>
-      </c>
-      <c r="F33" s="6">
-        <v>1722</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="9">
-        <v>9</v>
-      </c>
-      <c r="F34" s="9">
-        <v>1952</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D35" s="3"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D36" s="3"/>
-      <c r="G36" s="2"/>
-    </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E37" s="3"/>
+      <c r="D37" s="3"/>
       <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D38" s="3"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E39" s="3"/>
+      <c r="G39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A36"/>
+    <mergeCell ref="B4:B19"/>
+    <mergeCell ref="B20:B27"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:C3"/>
@@ -2185,11 +2261,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="A4:A34"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="B18:B25"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
